--- a/Dixon_and_Tian_570_item_Freq yiyi (version 1).xlsx
+++ b/Dixon_and_Tian_570_item_Freq yiyi (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44869\Desktop\R\Modelling-UK-inflation-quarterly-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D808D4-D2DB-4F6B-B41D-0F12FDFBC33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD869667-E694-4F07-AB81-4B0637D51866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="21780" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="34320" windowHeight="18786" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -13172,8 +13172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
